--- a/analized-output/StreamLine Data.xlsx
+++ b/analized-output/StreamLine Data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\lttng-git\mos_lttng_output\analized-output\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17715"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
@@ -273,6 +273,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -381,7 +382,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1D23-42FB-8E75-081EEC3B0271}"/>
             </c:ext>
@@ -459,7 +460,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1D23-42FB-8E75-081EEC3B0271}"/>
             </c:ext>
@@ -537,7 +538,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1D23-42FB-8E75-081EEC3B0271}"/>
             </c:ext>
@@ -553,11 +554,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="508307040"/>
-        <c:axId val="512129080"/>
+        <c:axId val="627883464"/>
+        <c:axId val="627892872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="508307040"/>
+        <c:axId val="627883464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -600,7 +601,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512129080"/>
+        <c:crossAx val="627892872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -608,7 +609,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="512129080"/>
+        <c:axId val="627892872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -659,7 +660,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508307040"/>
+        <c:crossAx val="627883464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -673,6 +674,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -740,7 +742,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
@@ -782,6 +784,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -890,7 +893,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-48FE-4396-B48F-3C97D3E06EB0}"/>
             </c:ext>
@@ -968,7 +971,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-48FE-4396-B48F-3C97D3E06EB0}"/>
             </c:ext>
@@ -1046,7 +1049,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-48FE-4396-B48F-3C97D3E06EB0}"/>
             </c:ext>
@@ -1062,11 +1065,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="515111560"/>
-        <c:axId val="515111888"/>
+        <c:axId val="627898360"/>
+        <c:axId val="627899144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="515111560"/>
+        <c:axId val="627898360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1109,7 +1112,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515111888"/>
+        <c:crossAx val="627899144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1117,7 +1120,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="515111888"/>
+        <c:axId val="627899144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1168,7 +1171,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515111560"/>
+        <c:crossAx val="627898360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1182,6 +1185,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1249,7 +1253,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
@@ -1295,6 +1299,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1403,7 +1408,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-62DD-47BB-AF51-DBC697ADAB2F}"/>
             </c:ext>
@@ -1481,7 +1486,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-62DD-47BB-AF51-DBC697ADAB2F}"/>
             </c:ext>
@@ -1497,11 +1502,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="510878800"/>
-        <c:axId val="510876504"/>
+        <c:axId val="627897184"/>
+        <c:axId val="627889344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="510878800"/>
+        <c:axId val="627897184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1544,7 +1549,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510876504"/>
+        <c:crossAx val="627889344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1552,7 +1557,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="510876504"/>
+        <c:axId val="627889344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1603,7 +1608,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510878800"/>
+        <c:crossAx val="627897184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1617,6 +1622,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1684,7 +1690,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
@@ -1726,6 +1732,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1834,7 +1841,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-98DE-43EF-9466-7109B5C763BB}"/>
             </c:ext>
@@ -1912,7 +1919,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-98DE-43EF-9466-7109B5C763BB}"/>
             </c:ext>
@@ -1928,11 +1935,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="514122888"/>
-        <c:axId val="514123216"/>
+        <c:axId val="627898752"/>
+        <c:axId val="627897576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="514122888"/>
+        <c:axId val="627898752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1975,7 +1982,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514123216"/>
+        <c:crossAx val="627897576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1983,7 +1990,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="514123216"/>
+        <c:axId val="627897576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2034,7 +2041,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514122888"/>
+        <c:crossAx val="627898752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2048,6 +2055,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2115,7 +2123,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
@@ -2159,6 +2167,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2259,7 +2268,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0354-48CE-9EFF-277A55931E31}"/>
             </c:ext>
@@ -2329,7 +2338,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0354-48CE-9EFF-277A55931E31}"/>
             </c:ext>
@@ -2344,11 +2353,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="575632080"/>
-        <c:axId val="580771296"/>
+        <c:axId val="627893264"/>
+        <c:axId val="627899536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="575632080"/>
+        <c:axId val="627893264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2405,7 +2414,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="580771296"/>
+        <c:crossAx val="627899536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2413,7 +2422,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="580771296"/>
+        <c:axId val="627899536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2470,7 +2479,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="575632080"/>
+        <c:crossAx val="627893264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2484,6 +2493,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2551,7 +2561,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
@@ -2595,6 +2605,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2695,7 +2706,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B1F6-49AE-A5ED-F85A989C95B3}"/>
             </c:ext>
@@ -2765,7 +2776,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B1F6-49AE-A5ED-F85A989C95B3}"/>
             </c:ext>
@@ -2780,11 +2791,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="575632080"/>
-        <c:axId val="580771296"/>
+        <c:axId val="627900320"/>
+        <c:axId val="627888560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="575632080"/>
+        <c:axId val="627900320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2841,7 +2852,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="580771296"/>
+        <c:crossAx val="627888560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2849,7 +2860,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="580771296"/>
+        <c:axId val="627888560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2906,7 +2917,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="575632080"/>
+        <c:crossAx val="627900320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2920,6 +2931,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2987,7 +2999,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
@@ -3040,6 +3052,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3140,7 +3153,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B428-40F3-A822-5BFD5FAB2044}"/>
             </c:ext>
@@ -3210,7 +3223,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B428-40F3-A822-5BFD5FAB2044}"/>
             </c:ext>
@@ -3225,11 +3238,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="575632080"/>
-        <c:axId val="580771296"/>
+        <c:axId val="627888168"/>
+        <c:axId val="627894048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="575632080"/>
+        <c:axId val="627888168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3286,7 +3299,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="580771296"/>
+        <c:crossAx val="627894048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3294,7 +3307,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="580771296"/>
+        <c:axId val="627894048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3351,7 +3364,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="575632080"/>
+        <c:crossAx val="627888168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3365,6 +3378,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7299,7 +7313,7 @@
         <xdr:cNvPr id="3" name="차트 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA55E663-4874-433B-94E5-C96DA2DA277B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA55E663-4874-433B-94E5-C96DA2DA277B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7335,7 +7349,7 @@
         <xdr:cNvPr id="6" name="차트 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F48BE1A5-969F-4248-91D5-CD4CE75327D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F48BE1A5-969F-4248-91D5-CD4CE75327D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7371,7 +7385,7 @@
         <xdr:cNvPr id="7" name="차트 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C280A80-7593-4CE3-AEEB-6B2C1E4A0EAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C280A80-7593-4CE3-AEEB-6B2C1E4A0EAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7409,7 +7423,7 @@
         <xdr:cNvPr id="8" name="차트 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F279ADD-33AB-42E8-AA48-FDF303586B51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F279ADD-33AB-42E8-AA48-FDF303586B51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7447,7 +7461,7 @@
         <xdr:cNvPr id="12" name="차트 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BDBF86D-8E2A-421F-8128-87793D7E1B53}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2BDBF86D-8E2A-421F-8128-87793D7E1B53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7483,7 +7497,7 @@
         <xdr:cNvPr id="13" name="차트 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8EC645-36E5-4DC7-8E2F-C78F5F84EE56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC8EC645-36E5-4DC7-8E2F-C78F5F84EE56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7521,7 +7535,7 @@
         <xdr:cNvPr id="14" name="차트 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7305D1A-8FDC-4A38-8068-8C599C6C4258}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7305D1A-8FDC-4A38-8068-8C599C6C4258}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7843,8 +7857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/analized-output/StreamLine Data.xlsx
+++ b/analized-output/StreamLine Data.xlsx
@@ -554,11 +554,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="627883464"/>
-        <c:axId val="627892872"/>
+        <c:axId val="604487520"/>
+        <c:axId val="604483992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="627883464"/>
+        <c:axId val="604487520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -601,7 +601,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627892872"/>
+        <c:crossAx val="604483992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -609,7 +609,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="627892872"/>
+        <c:axId val="604483992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -660,7 +660,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627883464"/>
+        <c:crossAx val="604487520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1065,11 +1065,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="627898360"/>
-        <c:axId val="627899144"/>
+        <c:axId val="604485168"/>
+        <c:axId val="604487912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="627898360"/>
+        <c:axId val="604485168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1112,7 +1112,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627899144"/>
+        <c:crossAx val="604487912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1120,7 +1120,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="627899144"/>
+        <c:axId val="604487912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1171,7 +1171,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627898360"/>
+        <c:crossAx val="604485168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1502,11 +1502,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="627897184"/>
-        <c:axId val="627889344"/>
+        <c:axId val="604483208"/>
+        <c:axId val="604486736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="627897184"/>
+        <c:axId val="604483208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1549,7 +1549,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627889344"/>
+        <c:crossAx val="604486736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1557,7 +1557,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="627889344"/>
+        <c:axId val="604486736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1608,7 +1608,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627897184"/>
+        <c:crossAx val="604483208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1935,11 +1935,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="627898752"/>
-        <c:axId val="627897576"/>
+        <c:axId val="604488304"/>
+        <c:axId val="604487128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="627898752"/>
+        <c:axId val="604488304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1982,7 +1982,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627897576"/>
+        <c:crossAx val="604487128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1990,7 +1990,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="627897576"/>
+        <c:axId val="604487128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2041,7 +2041,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627898752"/>
+        <c:crossAx val="604488304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2353,11 +2353,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="627893264"/>
-        <c:axId val="627899536"/>
+        <c:axId val="604488696"/>
+        <c:axId val="604490656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="627893264"/>
+        <c:axId val="604488696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2414,7 +2414,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627899536"/>
+        <c:crossAx val="604490656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2422,7 +2422,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="627899536"/>
+        <c:axId val="604490656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2479,7 +2479,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627893264"/>
+        <c:crossAx val="604488696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2791,11 +2791,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="627900320"/>
-        <c:axId val="627888560"/>
+        <c:axId val="604481640"/>
+        <c:axId val="604482032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="627900320"/>
+        <c:axId val="604481640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2852,7 +2852,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627888560"/>
+        <c:crossAx val="604482032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2860,7 +2860,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="627888560"/>
+        <c:axId val="604482032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2917,7 +2917,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627900320"/>
+        <c:crossAx val="604481640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3238,11 +3238,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="627888168"/>
-        <c:axId val="627894048"/>
+        <c:axId val="604482816"/>
+        <c:axId val="604495360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="627888168"/>
+        <c:axId val="604482816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3299,7 +3299,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627894048"/>
+        <c:crossAx val="604495360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3307,7 +3307,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="627894048"/>
+        <c:axId val="604495360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3364,7 +3364,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627888168"/>
+        <c:crossAx val="604482816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7313,7 +7313,7 @@
         <xdr:cNvPr id="3" name="차트 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA55E663-4874-433B-94E5-C96DA2DA277B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA55E663-4874-433B-94E5-C96DA2DA277B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7349,7 +7349,7 @@
         <xdr:cNvPr id="6" name="차트 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F48BE1A5-969F-4248-91D5-CD4CE75327D0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F48BE1A5-969F-4248-91D5-CD4CE75327D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7385,7 +7385,7 @@
         <xdr:cNvPr id="7" name="차트 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C280A80-7593-4CE3-AEEB-6B2C1E4A0EAB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C280A80-7593-4CE3-AEEB-6B2C1E4A0EAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7423,7 +7423,7 @@
         <xdr:cNvPr id="8" name="차트 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F279ADD-33AB-42E8-AA48-FDF303586B51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F279ADD-33AB-42E8-AA48-FDF303586B51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7461,7 +7461,7 @@
         <xdr:cNvPr id="12" name="차트 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2BDBF86D-8E2A-421F-8128-87793D7E1B53}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BDBF86D-8E2A-421F-8128-87793D7E1B53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7497,7 +7497,7 @@
         <xdr:cNvPr id="13" name="차트 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC8EC645-36E5-4DC7-8E2F-C78F5F84EE56}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8EC645-36E5-4DC7-8E2F-C78F5F84EE56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7535,7 +7535,7 @@
         <xdr:cNvPr id="14" name="차트 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7305D1A-8FDC-4A38-8068-8C599C6C4258}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7305D1A-8FDC-4A38-8068-8C599C6C4258}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7857,8 +7857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD47" sqref="AD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/analized-output/StreamLine Data.xlsx
+++ b/analized-output/StreamLine Data.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
   <si>
     <t>A53</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +145,26 @@
     <t>IDLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>450|450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>575|625</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700|800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>775|950</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>850|1100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -205,11 +225,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -554,11 +577,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="604487520"/>
-        <c:axId val="604483992"/>
+        <c:axId val="615827128"/>
+        <c:axId val="615830656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="604487520"/>
+        <c:axId val="615827128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -601,7 +624,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604483992"/>
+        <c:crossAx val="615830656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -609,7 +632,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="604483992"/>
+        <c:axId val="615830656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -660,7 +683,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604487520"/>
+        <c:crossAx val="615827128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1065,11 +1088,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="604485168"/>
-        <c:axId val="604487912"/>
+        <c:axId val="615823992"/>
+        <c:axId val="615828696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="604485168"/>
+        <c:axId val="615823992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1112,7 +1135,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604487912"/>
+        <c:crossAx val="615828696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1120,7 +1143,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="604487912"/>
+        <c:axId val="615828696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1171,7 +1194,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604485168"/>
+        <c:crossAx val="615823992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1502,11 +1525,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="604483208"/>
-        <c:axId val="604486736"/>
+        <c:axId val="615825168"/>
+        <c:axId val="615821640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="604483208"/>
+        <c:axId val="615825168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1549,7 +1572,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604486736"/>
+        <c:crossAx val="615821640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1557,7 +1580,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="604486736"/>
+        <c:axId val="615821640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1608,7 +1631,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604483208"/>
+        <c:crossAx val="615825168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1935,11 +1958,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="604488304"/>
-        <c:axId val="604487128"/>
+        <c:axId val="615829480"/>
+        <c:axId val="615831048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="604488304"/>
+        <c:axId val="615829480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1982,7 +2005,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604487128"/>
+        <c:crossAx val="615831048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1990,7 +2013,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="604487128"/>
+        <c:axId val="615831048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2041,7 +2064,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604488304"/>
+        <c:crossAx val="615829480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2353,11 +2376,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="604488696"/>
-        <c:axId val="604490656"/>
+        <c:axId val="615827520"/>
+        <c:axId val="615831440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="604488696"/>
+        <c:axId val="615827520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2414,7 +2437,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604490656"/>
+        <c:crossAx val="615831440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2422,7 +2445,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="604490656"/>
+        <c:axId val="615831440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2479,7 +2502,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604488696"/>
+        <c:crossAx val="615827520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2660,7 +2683,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$F$10</c:f>
+              <c:f>Sheet1!$T$10:$X$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2668,16 +2691,16 @@
                   <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>575</c:v>
+                  <c:v>625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>700</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>775</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>850</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2730,7 +2753,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$J$10:$N$10</c:f>
+              <c:f>Sheet1!$T$10:$X$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2738,16 +2761,16 @@
                   <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>575</c:v>
+                  <c:v>625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>700</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>775</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>850</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2791,11 +2814,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="604481640"/>
-        <c:axId val="604482032"/>
+        <c:axId val="615825560"/>
+        <c:axId val="615825952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="604481640"/>
+        <c:axId val="615825560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2852,7 +2875,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604482032"/>
+        <c:crossAx val="615825952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2860,7 +2883,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="604482032"/>
+        <c:axId val="615825952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2917,7 +2940,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604481640"/>
+        <c:crossAx val="615825560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3106,28 +3129,27 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$10:$F$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>Sheet1!$S$17:$W$17</c:f>
+              <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>450</c:v>
+                  <c:v>450|450</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>575</c:v>
+                  <c:v>575|625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>700</c:v>
+                  <c:v>700|800</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>775</c:v>
+                  <c:v>775|950</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>850</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>850|1100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3176,28 +3198,27 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$J$10:$N$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>Sheet1!$S$17:$W$17</c:f>
+              <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>450</c:v>
+                  <c:v>450|450</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>575</c:v>
+                  <c:v>575|625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>700</c:v>
+                  <c:v>700|800</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>775</c:v>
+                  <c:v>775|950</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>850</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>850|1100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3238,11 +3259,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="604482816"/>
-        <c:axId val="604495360"/>
+        <c:axId val="615829872"/>
+        <c:axId val="615827912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="604482816"/>
+        <c:axId val="615829872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3299,7 +3320,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604495360"/>
+        <c:crossAx val="615827912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3307,7 +3328,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="604495360"/>
+        <c:axId val="615827912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3364,7 +3385,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604482816"/>
+        <c:crossAx val="615829872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7313,7 +7334,7 @@
         <xdr:cNvPr id="3" name="차트 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA55E663-4874-433B-94E5-C96DA2DA277B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA55E663-4874-433B-94E5-C96DA2DA277B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7349,7 +7370,7 @@
         <xdr:cNvPr id="6" name="차트 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F48BE1A5-969F-4248-91D5-CD4CE75327D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F48BE1A5-969F-4248-91D5-CD4CE75327D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7385,7 +7406,7 @@
         <xdr:cNvPr id="7" name="차트 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C280A80-7593-4CE3-AEEB-6B2C1E4A0EAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C280A80-7593-4CE3-AEEB-6B2C1E4A0EAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7423,7 +7444,7 @@
         <xdr:cNvPr id="8" name="차트 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F279ADD-33AB-42E8-AA48-FDF303586B51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F279ADD-33AB-42E8-AA48-FDF303586B51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7461,7 +7482,7 @@
         <xdr:cNvPr id="12" name="차트 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BDBF86D-8E2A-421F-8128-87793D7E1B53}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2BDBF86D-8E2A-421F-8128-87793D7E1B53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7497,7 +7518,7 @@
         <xdr:cNvPr id="13" name="차트 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8EC645-36E5-4DC7-8E2F-C78F5F84EE56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC8EC645-36E5-4DC7-8E2F-C78F5F84EE56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7535,7 +7556,7 @@
         <xdr:cNvPr id="14" name="차트 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7305D1A-8FDC-4A38-8068-8C599C6C4258}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7305D1A-8FDC-4A38-8068-8C599C6C4258}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7857,8 +7878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD47" sqref="AD47"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8600,22 +8621,39 @@
         <v>5784.97</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:23" x14ac:dyDescent="0.3">
+      <c r="S17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:23" x14ac:dyDescent="0.3">
       <c r="I21" t="s">
         <v>19</v>
       </c>
